--- a/Assignments/Assignment1/A1_Part_4.xlsx
+++ b/Assignments/Assignment1/A1_Part_4.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzeng\Desktop\CS1A\Assignments\Assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\cs1a\Assignments\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="6510" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
   <si>
     <t>PROGRAM TRACE TABLE</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>East</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -318,41 +321,47 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -796,585 +805,717 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="22.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="54">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="108">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="54">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="81">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>15</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="81">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="81">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="81">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>19</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="27">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>21</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="27">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>-1</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>23</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>-1</v>
       </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="27">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>24</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>-1</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="27">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>25</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>-1</v>
       </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="27">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>26</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>-1</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>-1</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="27">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>27</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>-1</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>-2</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="27">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>29</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>-1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>-2</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="27">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>30</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
         <v>-2</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="27">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>32</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
         <v>-2</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27">
+      <c r="A23" s="11">
+        <v>33</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27">
+      <c r="A24" s="7">
+        <v>35</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27">
+      <c r="A25" s="9">
+        <v>37</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27">
+      <c r="A26" s="7">
+        <v>38</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" ht="27">
-      <c r="A23" s="12">
-        <v>33</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="27">
+      <c r="A27" s="11">
+        <v>39</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="67.5">
+      <c r="A28" s="12">
+        <v>41</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" ht="27">
-      <c r="A24" s="8">
-        <v>35</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" ht="27">
-      <c r="A25" s="10">
-        <v>37</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" ht="27">
-      <c r="A26" s="8">
-        <v>38</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:11" ht="27">
-      <c r="A27" s="12">
-        <v>39</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" ht="67.5">
-      <c r="A28" s="13">
-        <v>41</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="14" t="s">
+      <c r="C28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="50" s="5" customFormat="1"/>
     <row r="67" s="5" customFormat="1"/>

--- a/Assignments/Assignment1/A1_Part_4.xlsx
+++ b/Assignments/Assignment1/A1_Part_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\cs1a\Assignments\Assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSMESTUDENTS\Desktop\cs1a\Assignments\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="44">
   <si>
     <t>PROGRAM TRACE TABLE</t>
   </si>
@@ -148,6 +148,30 @@
   </si>
   <si>
     <t>East</t>
+  </si>
+  <si>
+    <t>Wall 1</t>
+  </si>
+  <si>
+    <t>Wall 2</t>
+  </si>
+  <si>
+    <t>Wall 3</t>
+  </si>
+  <si>
+    <t>Wall 4</t>
+  </si>
+  <si>
+    <t>Street 2 ,Avenue 1, EAST</t>
+  </si>
+  <si>
+    <t>Street 1, Avenue 2, SOUTH</t>
+  </si>
+  <si>
+    <t>Street 1, Avenue -1, NORTH</t>
+  </si>
+  <si>
+    <t>Street 3, Avenue 2, SOUTH</t>
   </si>
 </sst>
 </file>
@@ -303,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -341,9 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -771,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -782,12 +803,12 @@
     <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
+    <row r="1" spans="1:13" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -795,7 +816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -804,51 +825,67 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:13" ht="22.5">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="J4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="54">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="54">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -867,17 +904,29 @@
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="108">
+      <c r="G6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="108">
       <c r="A7" s="9">
         <v>12</v>
       </c>
@@ -896,17 +945,29 @@
       <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="54">
+      <c r="G7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="54">
       <c r="A8" s="7">
         <v>13</v>
       </c>
@@ -925,17 +986,29 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="81">
+      <c r="G8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="81">
       <c r="A9" s="11">
         <v>15</v>
       </c>
@@ -954,17 +1027,29 @@
       <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="81">
+      <c r="G9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="81">
       <c r="A10" s="12">
         <v>16</v>
       </c>
@@ -983,17 +1068,29 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="81">
+      <c r="G10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="81">
       <c r="A11" s="11">
         <v>17</v>
       </c>
@@ -1012,17 +1109,29 @@
       <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="81">
+      <c r="G11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="81">
       <c r="A12" s="7">
         <v>19</v>
       </c>
@@ -1041,17 +1150,29 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27">
+      <c r="G12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.5">
       <c r="A13" s="9">
         <v>21</v>
       </c>
@@ -1070,17 +1191,29 @@
       <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27">
+      <c r="G13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="40.5">
       <c r="A14" s="7">
         <v>22</v>
       </c>
@@ -1099,17 +1232,29 @@
       <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30.75" customHeight="1">
+      <c r="G14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30.75" customHeight="1">
       <c r="A15" s="11">
         <v>23</v>
       </c>
@@ -1128,17 +1273,29 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27">
+      <c r="G15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="40.5">
       <c r="A16" s="9">
         <v>24</v>
       </c>
@@ -1157,17 +1314,29 @@
       <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27">
+      <c r="G16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="40.5">
       <c r="A17" s="11">
         <v>25</v>
       </c>
@@ -1183,20 +1352,32 @@
       <c r="E17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="27">
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="40.5">
       <c r="A18" s="7">
         <v>26</v>
       </c>
@@ -1215,17 +1396,29 @@
       <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="27">
+      <c r="G18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="40.5">
       <c r="A19" s="9">
         <v>27</v>
       </c>
@@ -1244,17 +1437,29 @@
       <c r="F19" s="10">
         <v>1</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="27">
+      <c r="G19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="40.5">
       <c r="A20" s="7">
         <v>29</v>
       </c>
@@ -1273,17 +1478,29 @@
       <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27">
+      <c r="G20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="40.5">
       <c r="A21" s="11">
         <v>30</v>
       </c>
@@ -1302,17 +1519,29 @@
       <c r="F21" s="10">
         <v>1</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27">
+      <c r="G21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="40.5">
       <c r="A22" s="9">
         <v>32</v>
       </c>
@@ -1331,17 +1560,29 @@
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27">
+      <c r="G22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="40.5">
       <c r="A23" s="11">
         <v>33</v>
       </c>
@@ -1360,17 +1601,29 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="27">
+      <c r="G23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="40.5">
       <c r="A24" s="7">
         <v>35</v>
       </c>
@@ -1389,17 +1642,29 @@
       <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="27">
+      <c r="G24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="40.5">
       <c r="A25" s="9">
         <v>37</v>
       </c>
@@ -1418,17 +1683,29 @@
       <c r="F25" s="10">
         <v>0</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="27">
+      <c r="G25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="40.5">
       <c r="A26" s="7">
         <v>38</v>
       </c>
@@ -1447,18 +1724,29 @@
       <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="27">
+      <c r="G26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="40.5">
       <c r="A27" s="11">
         <v>39</v>
       </c>
@@ -1477,51 +1765,78 @@
       <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="67.5">
+      <c r="G27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="67.5">
       <c r="A28" s="12">
         <v>41</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="16" t="s">
+      <c r="C28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="50" s="5" customFormat="1"/>
+      <c r="J28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" s="5" customFormat="1"/>
+    <row r="66" s="5" customFormat="1"/>
     <row r="67" s="5" customFormat="1"/>
-    <row r="68" s="5" customFormat="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>

--- a/Assignments/Assignment1/A1_Part_4.xlsx
+++ b/Assignments/Assignment1/A1_Part_4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="47">
   <si>
     <t>PROGRAM TRACE TABLE</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Street 3, Avenue 2, SOUTH</t>
+  </si>
+  <si>
+    <t>-1,1</t>
+  </si>
+  <si>
+    <t>0,-1</t>
+  </si>
+  <si>
+    <t>Thing's Location</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -322,12 +331,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -382,6 +417,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,23 +836,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25">
+    <row r="1" spans="1:14" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -816,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -825,7 +869,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5">
+    <row r="4" spans="1:14" ht="22.5">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
@@ -844,29 +888,32 @@
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="N4" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -877,15 +924,16 @@
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" ht="54">
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" ht="54">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -925,8 +973,11 @@
       <c r="M6" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="108">
+      <c r="N6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="108">
       <c r="A7" s="9">
         <v>12</v>
       </c>
@@ -966,8 +1017,11 @@
       <c r="M7" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="54">
+      <c r="N7" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="54">
       <c r="A8" s="7">
         <v>13</v>
       </c>
@@ -1007,8 +1061,11 @@
       <c r="M8" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="81">
+      <c r="N8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="81">
       <c r="A9" s="11">
         <v>15</v>
       </c>
@@ -1028,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>34</v>
@@ -1037,19 +1094,22 @@
         <v>34</v>
       </c>
       <c r="J9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="L9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="81">
+      <c r="N9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="81">
       <c r="A10" s="12">
         <v>16</v>
       </c>
@@ -1069,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>34</v>
@@ -1078,19 +1138,22 @@
         <v>34</v>
       </c>
       <c r="J10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="M10" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="81">
+      <c r="N10" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="81">
       <c r="A11" s="11">
         <v>17</v>
       </c>
@@ -1110,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>34</v>
@@ -1119,19 +1182,22 @@
         <v>34</v>
       </c>
       <c r="J11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="M11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="18">
+      <c r="N11" s="18">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="81">
+    <row r="12" spans="1:14" ht="81">
       <c r="A12" s="7">
         <v>19</v>
       </c>
@@ -1151,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>34</v>
@@ -1160,19 +1226,22 @@
         <v>34</v>
       </c>
       <c r="J12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="40.5">
+    <row r="13" spans="1:14" ht="40.5">
       <c r="A13" s="9">
         <v>21</v>
       </c>
@@ -1192,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -1201,19 +1270,22 @@
         <v>34</v>
       </c>
       <c r="J13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="M13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="40.5">
+    <row r="14" spans="1:14" ht="40.5">
       <c r="A14" s="7">
         <v>22</v>
       </c>
@@ -1233,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>34</v>
@@ -1242,19 +1314,22 @@
         <v>34</v>
       </c>
       <c r="J14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="N14" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30.75" customHeight="1">
+    <row r="15" spans="1:14" ht="30.75" customHeight="1">
       <c r="A15" s="11">
         <v>23</v>
       </c>
@@ -1283,19 +1358,22 @@
         <v>34</v>
       </c>
       <c r="J15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="M15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="N15" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="40.5">
+    <row r="16" spans="1:14" ht="40.5">
       <c r="A16" s="9">
         <v>24</v>
       </c>
@@ -1324,19 +1402,22 @@
         <v>34</v>
       </c>
       <c r="J16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="N16" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="40.5">
+    <row r="17" spans="1:14" ht="40.5">
       <c r="A17" s="11">
         <v>25</v>
       </c>
@@ -1355,7 +1436,7 @@
       <c r="F17" s="16">
         <v>1</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="20" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="18" t="s">
@@ -1365,19 +1446,22 @@
         <v>34</v>
       </c>
       <c r="J17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="L17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="M17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="N17" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="40.5">
+    <row r="18" spans="1:14" ht="40.5">
       <c r="A18" s="7">
         <v>26</v>
       </c>
@@ -1406,19 +1490,22 @@
         <v>34</v>
       </c>
       <c r="J18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="40.5">
+    <row r="19" spans="1:14" ht="40.5">
       <c r="A19" s="9">
         <v>27</v>
       </c>
@@ -1447,19 +1534,22 @@
         <v>34</v>
       </c>
       <c r="J19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="L19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="M19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="N19" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="40.5">
+    <row r="20" spans="1:14" ht="40.5">
       <c r="A20" s="7">
         <v>29</v>
       </c>
@@ -1488,19 +1578,22 @@
         <v>34</v>
       </c>
       <c r="J20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="M20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="N20" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="40.5">
+    <row r="21" spans="1:14" ht="40.5">
       <c r="A21" s="11">
         <v>30</v>
       </c>
@@ -1529,19 +1622,22 @@
         <v>34</v>
       </c>
       <c r="J21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="M21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="N21" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="40.5">
+    <row r="22" spans="1:14" ht="40.5">
       <c r="A22" s="9">
         <v>32</v>
       </c>
@@ -1570,19 +1666,22 @@
         <v>34</v>
       </c>
       <c r="J22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="N22" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="40.5">
+    <row r="23" spans="1:14" ht="40.5">
       <c r="A23" s="11">
         <v>33</v>
       </c>
@@ -1611,19 +1710,22 @@
         <v>34</v>
       </c>
       <c r="J23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="L23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="M23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="N23" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="40.5">
+    <row r="24" spans="1:14" ht="40.5">
       <c r="A24" s="7">
         <v>35</v>
       </c>
@@ -1643,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>34</v>
@@ -1652,19 +1754,22 @@
         <v>34</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="M24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="N24" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="40.5">
+    <row r="25" spans="1:14" ht="40.5">
       <c r="A25" s="9">
         <v>37</v>
       </c>
@@ -1684,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>34</v>
@@ -1693,19 +1798,22 @@
         <v>34</v>
       </c>
       <c r="J25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="L25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="M25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="N25" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="40.5">
+    <row r="26" spans="1:14" ht="40.5">
       <c r="A26" s="7">
         <v>38</v>
       </c>
@@ -1725,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>34</v>
@@ -1734,19 +1842,22 @@
         <v>34</v>
       </c>
       <c r="J26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="N26" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="40.5">
+    <row r="27" spans="1:14" ht="40.5">
       <c r="A27" s="11">
         <v>39</v>
       </c>
@@ -1766,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>34</v>
@@ -1775,19 +1886,22 @@
         <v>34</v>
       </c>
       <c r="J27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="L27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="M27" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="N27" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="67.5">
+    <row r="28" spans="1:14" ht="67.5">
       <c r="A28" s="12">
         <v>41</v>
       </c>
@@ -1806,25 +1920,28 @@
       <c r="F28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="I28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="J28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="K28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="L28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="M28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="N28" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1832,18 +1949,19 @@
     <row r="66" s="5" customFormat="1"/>
     <row r="67" s="5" customFormat="1"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
+  <mergeCells count="12">
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
